--- a/excelinfo.xlsx
+++ b/excelinfo.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,9 +498,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>EW</t>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
@@ -525,9 +525,9 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>93</t>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -552,9 +552,9 @@
           <t>Datum A Flatness</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>HSG inner width</t>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Datum A Flatness</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -574,14 +574,14 @@
           <t>0.00</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>0.00</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>176.618</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -606,9 +606,9 @@
           <t>+0.80</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>+0.15</t>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>+0.80</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -633,9 +633,9 @@
           <t>-0.00</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>-0.05</t>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -660,9 +660,9 @@
           <t>OMM</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>CMM</t>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>OMM</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -687,9 +687,9 @@
           <t>4x points support</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>Vacuum adsorption</t>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4x points support</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -743,560 +743,689 @@
 36x raw data</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1x SPC
+36x raw data</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1x SPC
+36x raw data</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Measurement Procedure</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>1. Create datum A/B/C
+2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1. Create datum A/B/C
+2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1. Create datum A/B/C
+2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1. Create datum A/B/C
+2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Calculation Method</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>1. Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56 create plane PL1
+2. Calculate Flatness of PL1</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1. Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56 create plane PL1
+2. Calculate Flatness of PL1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1. Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56 create plane PL1
+2. Calculate Flatness of PL1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1. Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56 create plane PL1
+2. Calculate Flatness of PL1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>SPC</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>HSG inner width</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>HSG inner width</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>HSG inner width</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>HSG inner width</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>176.618</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>176.618</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>176.618</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>176.618</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Tol+</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>+0.2</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>+0.15</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>+0.15</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>+0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Tol-</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>CMM</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>CMM</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>CMM</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>CMM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Fixture Positioning</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Vacuum adsorption</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Vacuum adsorption</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Vacuum adsorption</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Vacuum adsorption</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Reference Datums</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>A+B+C</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>A+B+C</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>A+B+C</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>A+B+C</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Reporting Output</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>3x SPC
 6x raw data</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1x SPC
-36x raw data</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Measurement Procedure</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>1. Create datum A/B/C
-2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1. Create datum A/B/C
-2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>1. Capture 2 points (S1&amp;S2) as picture right</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1. Create datum A/B/C
-2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>SPC</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>HSG inner width</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>HSG inner width</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>Datum A Flatness</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>HSG inner width</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>Nominal</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>176.618</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>176.618</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>176.618</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Tol+</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>+0.80</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Tol-</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>CMM</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>CMM</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>OMM</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>CMM</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Fixture Positioning</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Vacuum adsorption</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>Vacuum adsorption</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>4x points support</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Vacuum adsorption</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Reference Datums</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>A+B+C</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>A+B+C</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>A+B+C</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>A+B+C</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>Reporting Output</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>3x SPC
 6x raw data</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>3x SPC
 6x raw data</t>
         </is>
       </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>1x SPC
-36x raw data</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>3x SPC
 6x raw data</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Measurement Procedure</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>1. Capture 2 points (S1&amp;S2) as picture right</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>1. Capture 2 points (S1&amp;S2) as picture right</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>1. Create datum A/B/C
-2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>1. Capture 2 points (S1&amp;S2) as picture right</t>
-        </is>
-      </c>
-    </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
+          <t>Measurement Procedure</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>1. Capture 2 points (S1&amp;S2) as picture right</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1. Capture 2 points (S1&amp;S2) as picture right</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1. Capture 2 points (S1&amp;S2) as picture right</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1. Capture 2 points (S1&amp;S2) as picture right</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
           <t>Calculation Method</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>1. SPC EW_IXY_1 : Calculate the distance from S1 to S2 in orientation X.
 2. The same method for other locations(IXY_2,IXY_3).</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>1. SPC EW_IXY_1 : Calculate the distance from S1 to S2 in orientation X.
 2. The same method for other locations(IXY_2,IXY_3).</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>1. Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56 create plane PL1
-2. Calculate Flatness of PL1</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>1. SPC EW_IXY_1 : Calculate the distance from S1 to S2 in orientation X.
 2. The same method for other locations(IXY_2,IXY_3).</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n"/>
-      <c r="B25" s="2" t="n"/>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1. SPC EW_IXY_1 : Calculate the distance from S1 to S2 in orientation X.
+2. The same method for other locations(IXY_2,IXY_3).</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>SPC</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>EX</t>
         </is>
       </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="3" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>EX</t>
         </is>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n"/>
-      <c r="B26" s="2" t="n"/>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="D26" s="3" t="n"/>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>EX</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>95</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="3" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>95</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n"/>
-      <c r="B27" s="2" t="n"/>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="D27" s="3" t="n"/>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>HSG inner length</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="3" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>HSG inner length</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n"/>
-      <c r="B28" s="2" t="n"/>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="D28" s="3" t="n"/>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>HSG inner length</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>245.728</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="3" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>245.728</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n"/>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>245.728</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Tol+</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>+0.15</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="3" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>+0.15</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n"/>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>+0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Tol-</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>-0.05</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="3" t="inlineStr">
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="3" t="inlineStr">
         <is>
           <t>-0.05</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="3" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>CMM</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="3" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>CMM</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="D32" s="3" t="n"/>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>CMM</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Fixture Positioning</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>Vacuum adsorption</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="3" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Vacuum adsorption</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n"/>
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Vacuum adsorption</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Reference Datums</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>A+B+C</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="3" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>A+B+C</t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n"/>
-      <c r="B34" s="2" t="n"/>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="D34" s="3" t="n"/>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>A+B+C</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Reporting Output</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>3x SPC
 6x raw data</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="3" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>3x SPC
 6x raw data</t>
         </is>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="D35" s="3" t="n"/>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>3x SPC
+6x raw data</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Measurement Procedure</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>1. Capture 2 points (S1&amp;S2) as picture right</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n"/>
-      <c r="E35" s="3" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>1. Capture 2 points (S1&amp;S2) as picture right</t>
         </is>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="D36" s="3" t="n"/>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>1. Capture 2 points (S1&amp;S2) as picture right</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>Calculation Method</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>1. SPC EX_IXY_5 : Calculate the distance from S1 to S2 in orientation X.
 2. The same method for other locations(IXY_7,IXY_9).</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n"/>
-      <c r="E36" s="3" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>1. SPC EX_IXY_5 : Calculate the distance from S1 to S2 in orientation X.
+2. The same method for other locations(IXY_7,IXY_9).</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="n"/>
+      <c r="E37" s="2" t="inlineStr">
         <is>
           <t>1. SPC EX_IXY_5 : Calculate the distance from S1 to S2 in orientation X.
 2. The same method for other locations(IXY_7,IXY_9).</t>

--- a/excelinfo.xlsx
+++ b/excelinfo.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,32 +453,26 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>a.pptx</t>
+          <t>J001_MTD_Template_V1.0.2.pptx</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ppt_table_1eg.pptx</t>
+          <t>J002_MTD_Template_V1.0.2.pptx</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ppt_table_2eg.pptx</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ppt_table_3eg.pptx</t>
+          <t>J003_MTD_Template_V1.0.2.pptx</t>
         </is>
       </c>
     </row>
@@ -498,16 +492,7 @@
           <t>A</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
+      <c r="D2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -525,16 +510,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -552,883 +528,1772 @@
           <t>Datum A Flatness</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Datum A Flatness</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Datum A Flatness</t>
-        </is>
-      </c>
+      <c r="D4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Nominal</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+          <t>Flatness(GD&amp;T)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Flatness(GD&amp;T)</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Tol+</t>
+          <t>SKU</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>+0.80</t>
+          <t>Both</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>+0.80</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>+0.80</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>+0.80</t>
-        </is>
-      </c>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Tol-</t>
+          <t>Nominal</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Tol+</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>OMM</t>
+          <t>+0.800</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>OMM</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>OMM</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>OMM</t>
-        </is>
-      </c>
+          <t>+0.800</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Fixture Positioning</t>
+          <t>Tol-</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>4x points support</t>
+          <t>-0.000</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4x points support</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>4x points support</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4x points support</t>
-        </is>
-      </c>
+          <t>-0.000</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Reference Datums</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>A+B+C</t>
+          <t>OMM</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>A+B+C</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>A+B+C</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>A+B+C</t>
-        </is>
-      </c>
+          <t>OMM</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Reporting Output</t>
+          <t>Fixture Positioning</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>1x SPC
-36x raw data</t>
+          <t>4x points support</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1x SPC
-36x raw data</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1x SPC
-36x raw data</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1x SPC
-36x raw data</t>
-        </is>
-      </c>
+          <t>4x points support</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
+          <t>Reference Datums</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>A+B+C</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>A+B+C</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>SPC Output</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>SPC_A</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>SPC_A</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>SPC qty</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Raw data Output</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Raw data qty</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
           <t>Measurement Procedure</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>1. Create datum A/B/C
 2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>1. Create datum A/B/C
 2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1. Create datum A/B/C
-2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1. Create datum A/B/C
-2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="D17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>Calculation Method</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>1. Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56 create plane PL1
 2. Calculate Flatness of PL1</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>1. Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56 create plane PL1
 2. Calculate Flatness of PL1</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1. Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56 create plane PL1
-2. Calculate Flatness of PL1</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1. Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56 create plane PL1
-2. Calculate Flatness of PL1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>SPC</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>EW</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>FAI</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>HSG inner width</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>HSG inner width</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>HSG inner width</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>HSG inner width</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Nominal</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>176.618</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>176.618</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>176.618</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>176.618</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Tol+</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>+0.2</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
+      <c r="D18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>Tol-</t>
+          <t>SPC</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n"/>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-0.05</t>
+          <t>EW</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>CMM</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>CMM</t>
-        </is>
-      </c>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="n"/>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>CMM</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>CMM</t>
+          <t>93</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>Fixture Positioning</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Vacuum adsorption</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Vacuum adsorption</t>
-        </is>
-      </c>
+          <t>HSG inner width</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="n"/>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Vacuum adsorption</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>Vacuum adsorption</t>
+          <t>HSG inner width</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>Reference Datums</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>A+B+C</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>A+B+C</t>
-        </is>
-      </c>
+          <t>Tolerance</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="n"/>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>A+B+C</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>A+B+C</t>
+          <t>Tolerance</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>Reporting Output</t>
+          <t>SKU</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>3x SPC
-6x raw data</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>3x SPC
-6x raw data</t>
-        </is>
-      </c>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n"/>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>3x SPC
-6x raw data</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>3x SPC
-6x raw data</t>
+          <t>Both</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Measurement Procedure</t>
+          <t>Nominal</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>1. Capture 2 points (S1&amp;S2) as picture right</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1. Capture 2 points (S1&amp;S2) as picture right</t>
-        </is>
-      </c>
+          <t>176.618</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="n"/>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1. Capture 2 points (S1&amp;S2) as picture right</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>1. Capture 2 points (S1&amp;S2) as picture right</t>
+          <t>176.618</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>Calculation Method</t>
+          <t>Tol+</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>1. SPC EW_IXY_1 : Calculate the distance from S1 to S2 in orientation X.
-2. The same method for other locations(IXY_2,IXY_3).</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1. SPC EW_IXY_1 : Calculate the distance from S1 to S2 in orientation X.
-2. The same method for other locations(IXY_2,IXY_3).</t>
-        </is>
-      </c>
+          <t>+0.150</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="n"/>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1. SPC EW_IXY_1 : Calculate the distance from S1 to S2 in orientation X.
-2. The same method for other locations(IXY_2,IXY_3).</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>1. SPC EW_IXY_1 : Calculate the distance from S1 to S2 in orientation X.
-2. The same method for other locations(IXY_2,IXY_3).</t>
+          <t>+0.150</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>SPC</t>
+          <t>Tol-</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>EX</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>EX</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="n"/>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>EX</t>
+          <t>-0.050</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="n"/>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>-0.050</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="n"/>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>95</t>
+          <t>CMM</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>CMM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Fixture Positioning</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>HSG inner length</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>HSG inner length</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="n"/>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>HSG inner length</t>
+          <t>Vacuum adsorption</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="n"/>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>Vacuum adsorption</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>Nominal</t>
+          <t>Reference Datums</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>245.728</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>245.728</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="n"/>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>245.728</t>
+          <t>A+B+C</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>A+B+C</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>Tol+</t>
+          <t>SPC Output</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>+0.15</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>+0.15</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="n"/>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>+0.15</t>
+          <t>SPC_EW_1 ~ SPC_EW_3</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>SPC_EW_1 ~ SPC_EW_3</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>Tol-</t>
+          <t>SPC qty</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="D31" s="3" t="n"/>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>-0.05</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Raw data Output</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>CMM</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>CMM</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="n"/>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>CMM</t>
+          <t>IXY_1~IXY_3, IXY_11~IXY_13</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="n"/>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>IXY_1~IXY_3, IXY_11~IXY_13</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>Fixture Positioning</t>
+          <t>Raw data qty</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Vacuum adsorption</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>Vacuum adsorption</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="n"/>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>Vacuum adsorption</t>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>Reference Datums</t>
+          <t>Measurement Procedure</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>A+B+C</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>A+B+C</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="n"/>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>A+B+C</t>
+          <t>1. Capture 2 points (S1&amp;S2) as picture right</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="n"/>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>1. Capture 2 points (S1&amp;S2) as picture right</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>Reporting Output</t>
+          <t>Calculation Method</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>3x SPC
-6x raw data</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>3x SPC
-6x raw data</t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="n"/>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>3x SPC
-6x raw data</t>
+          <t>1. SPC_EW_1 : Calculate the distance from S1 to S2 in orientation X.
+2. The same method for other locations(SPC_EW_2, SPC_EW_3).</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n"/>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>1. SPC_EW_1 : Calculate the distance from S1 to S2 in orientation X.
+2. The same method for other locations(SPC_EW_2, SPC_EW_3).</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>Measurement Procedure</t>
+          <t>SPC</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>1. Capture 2 points (S1&amp;S2) as picture right</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>1. Capture 2 points (S1&amp;S2) as picture right</t>
-        </is>
-      </c>
-      <c r="D36" s="3" t="n"/>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>1. Capture 2 points (S1&amp;S2) as picture right</t>
+          <t>CM</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>CM</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>description for cm</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>description for cm</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>description for cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Flatness(GD&amp;T)/Profile(GD&amp;T)/…/Tolerance/MAX/MIN</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>Flatness(GD&amp;T)/Profile(GD&amp;T)/…/Tolerance/MAX/MIN</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>Flatness(GD&amp;T)/Profile(GD&amp;T)/…/Tolerance/MAX/MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Both/Wifi/Cell</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>Both/Wifi/Cellxxxx</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>Both/Wifi/Cell</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>xxx.xxx (Nomial)</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>xxx.xxx (Nomial)</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>xxx.xxx (Nomial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Tol+</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>+xx.xxx (upper tolerance, no blank between ‘+’ &amp; value)</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>+xx.xxx (upper tolerance, no blank between ‘+’ &amp; value)</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>+xx.xxx (upper tolerance, no blank between ‘+’ &amp; value)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Tol-</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>-xx.xxx (Lower tolerance, no blank between ‘+’ &amp; value)</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>-xx.xxx (Lower tolerance, no blank between ‘+’ &amp; value)</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>-xx.xxx (Lower tolerance, no blank between ‘+’ &amp; value)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>CMM/OMM/Calliper/Other</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>CMM/OMM/Calliper/Other</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>CMM/OMM/Calliper/Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Fixture Positioning</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Vacuum Adsorption/
+4x Points Support/
+4x Points Support + Magnet</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Vacuum Adsorption/
+4x Points Support/
+4x Points Support + Magnet</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>Vacuum Adsorption/
+4x Points Support/
+4x Points Support + Magnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Reference Datums</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Datum1+Datum2+Datum3 (No blank before &amp; after ‘+’)</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Datum1+Datum2+Datum3 (No blank before &amp; after ‘+’)</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>Datum1+Datum2+Datum3 (No blank before &amp; after ‘+’)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>SPC Output</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>SPC_A (if have more than 1x output: SPC_A_1, SPC_A_2, …)</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>SPC_A</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>SPC_A (if have more than 1x output: SPC_A_1, SPC_A_2, …)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>SPC qty</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>1 (qty)</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>1 (qty)</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>1 (qty)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Raw data Output</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56
+(example1, if drawing have defined point name, follow drawing)
+A_1, A_2, …
+(example2, if drawing have no defined point name: XX_NO)</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56
+(example1, if drawing have defined point name, follow drawing)
+A_1, A_2, …
+(example2, if drawing have no defined point name: XX_NO)</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56
+(example1, if drawing have defined point name, follow drawing)
+A_1, A_2, …sss
+(example2, if drawing have no defined point name: XX_NO)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Raw data qty</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>36 (qty)</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>36 (qty)</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>36 (qty)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>Measurement Procedure</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>1. Create datum A/B/C
+2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56
+(example)</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>1. Create datum A/B/C
+2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56
+(example)</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>1. Create datum A/B/C
+2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56
+(example)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
           <t>Calculation Method</t>
         </is>
       </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>1. SPC EX_IXY_5 : Calculate the distance from S1 to S2 in orientation X.
-2. The same method for other locations(IXY_7,IXY_9).</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>1. SPC EX_IXY_5 : Calculate the distance from S1 to S2 in orientation X.
-2. The same method for other locations(IXY_7,IXY_9).</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="n"/>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>1. SPC EX_IXY_5 : Calculate the distance from S1 to S2 in orientation X.
-2. The same method for other locations(IXY_7,IXY_9).</t>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>1. Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56 create plane PL1
+2. Calculate Flatness of PL1
+(example)</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>1. Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56 create plane PL1
+2. Calculate Flatness of PL1
+(example)</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>1. Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56 create plane PL1
+2. Calculate Flatness of PL1
+(example)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>SPC</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>description for am</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>description for am</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>description for am</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Flatness(GD&amp;T)/Profile(GD&amp;T)/…/Tolerance/MAX/MIN</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Flatness(GD&amp;T)/Profile(GD&amp;T)/…/Tolerance/MAX/MIN</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>Flatness(GD&amp;T)/Profile(GD&amp;T)/…/Tolerance/MAX/MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Both/Wifi/Cell</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>Both/Wifi/Cell</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>Both/Wifi/Cell</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>xxx.xxx (Nomial)</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>xxx.xxx (Nomial)</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>xxx.xxx (Nomial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Tol+</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>+xx.xxx (upper tolerance, no blank between ‘+’ &amp; value)</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>+xx.xxx (upper tolerance, no blank between ‘+’ &amp; value)</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>+xx.xxx (upper tolerance, no blank between ‘+’ &amp; value)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Tol-</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>-xx.xxx (Lower tolerance, no blank between ‘+’ &amp; value)</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>-xx.xxx (Lower tolerance, no blank between ‘+’ &amp; value)</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>-xx.xxx (Lower tolerance, no blank between ‘+’ &amp; value)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>CMM/OMM/Calliper/Other</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>CMM/OMM/Calliper/Other</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>CMM/OMM/Calliper/Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Fixture Positioning</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Vacuum Adsorption/
+4x Points Support/
+4x Points Support + Magnet</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>Vacuum Adsorption/
+4x Points Support/
+4x Points Support + Magnet</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>Vacuum Adsorption/
+4x Points Support/sss
+4x Points Support + Magnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Reference Datums</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Datum1+Datum2+Datum3 (No blank before &amp; after ‘+’)</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>Datum1+Datum2+Datum3 (No blank before &amp; after ‘+’)</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>Datum1+Datum2+Datum3 (No blank before &amp; after ‘+’)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>SPC Output</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>SPC_A (if have more than 1x output: SPC_A_1, SPC_A_2, …)</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>SPC_A (if have more than 1x output: SPC_A_1, SPC_A_2, …)</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>SPC_A (if have more than 1x output: SPC_A_1, SPC_A_2, …)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>SPC qty</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>1 (qty)</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>1 (qty)</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>1 (qty)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Raw data Output</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56
+(example1, if drawing have defined point name, follow drawing)
+A_1, A_2, …
+(example2, if drawing have no defined point name: XX_NO)</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56
+(example1, if drawing have defined point name, follow drawing)
+A_1, A_2, …
+(example2, if drawing have no defined point name: XX_NO)</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56
+(example1, if drawing have defined point name, follow drawing)
+A_1, A_2, …
+(example2, if drawing have no defined point name: XX_NO)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>Raw data qty</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>36 (qty)</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>36 (qty)</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>36 (qty)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Measurement Procedure</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>1. Create datum A/B/C
+2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56
+(example)</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>1. Create datum A/B/C
+2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56
+(example)</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>1. Create datum A/B/C
+2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56
+(example)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>Calculation Method</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>1. Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56 create plane PL1
+2. Calculate Flatness of PL1
+(example)</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>1. Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56 create plane PL1
+2. Calculate Flatness of PL1
+(example)</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>1. Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56 create plane PL1
+2. Calculate Flatness of PL1
+(example)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>SPC</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>FM</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>FM</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>FM</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>FAI</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>5572</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>description for fm</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>description for fm</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>description for fm</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>Flatness(GD&amp;T)/Profile(GD&amp;T)/…/Tolerance/MAX/MIN</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>Flatness(GD&amp;T)/Profile(GD&amp;T)/…/Tolerance/MAX/MIN</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>Flatness(GD&amp;T)/Profile(GD&amp;T)/…/Tolerance/MAX/MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Both/Wifi/Cell</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>Both/Wifi/Cell</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>Both/Wifi/Cell</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>Nominal</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>xxx.xxx (Nomial)</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>xxx.xxx (Nomial)</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>xxx.xxx (Nomial)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Tol+</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>+xx.xxx (upper tolerance, no blank between ‘+’ &amp; value)</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>+xx.xxx (upper tolerance, no blank between ‘+’ &amp; value)</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>+xx.xxx (upper tolerance, no blank between ‘+’ &amp; value)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>Tol-</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>-xx.xxx (Lower tolerance, no blank between ‘+’ &amp; value)</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>-xx.xxx (Lower tolerance, no blank between ‘+’ &amp; value)</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>-xx.xxx (Lower tolerance, no blank between ‘+’ &amp; value)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>CMM/OMM/Calliper/Other</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>CMM/OMM/Calliper/Other</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>CMM/OMM/Calliper/Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>Fixture Positioning</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Vacuum Adsorption/
+4x Points Support/
+4x Points Support + Magnet</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>Vacuum Adsorption/
+4x Points Support/
+4x Points Support + Magnet</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>Vacuum Adsorption/
+4x Points Support/
+4x Points Support + Magnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Reference Datums</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Datum1+Datum2+Datum3 (No blank before &amp; after ‘+’)</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>Datum1+Datum2+Datum3 (No blank before &amp; after ‘+’)</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>Datum1+Datum2+Datum3 (No blank before &amp; after ‘+’)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>SPC Output</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>SPC_A (if have more than 1x output: SPC_A_1, SPC_A_2, …)</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>SPC_A (if have more than 1x output: SPC_A_1, SPC_A_2, …)</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>SPC_A (if have more than 1x output: SPC_A_1, SPC_A_2, …)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>SPC qty</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>1 (qty)</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>1 (qty)</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>1 (qty)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Raw data Output</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56
+(example1, if drawing have defined point name, follow drawing)
+A_1, A_2, …
+(example2, if drawing have no defined point name: XX_NO)</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56
+(example1, if drawing have defined point name, follow drawing)
+A_1, A_2, …
+(example2, if drawing have no defined point name: XX_NO)</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56
+(example1, if drawing have defined point name, follow drawing)
+A_1, A_2, …
+(example2, if drawing have no defined point name: XX_NO)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Raw data qty</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>36 (qty)</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>36 (qty)</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>36 (qty)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>Measurement Procedure</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>1. Create datum A/B/C
+2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56
+(example)</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>1. Create datum A/B/C
+2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56ss
+(example)</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>1. Create datum A/B/C
+2. Measure Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56
+(example)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Calculation Method</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>1. Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56 create plane PL1
+2. Calculate Flatness of PL1
+(example)</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>1. Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56 create plane PL1
+2. Calculate Flatness of PL1
+(example)</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>1. Point P1~P9, P14, P17~P23, P27, P31~P39, P44, P47~P53, P56 create plane PL1
+2. Calculate Flatness of PL1
+(example)</t>
         </is>
       </c>
     </row>
